--- a/pred_ohlcv/54_21/2019-11-13 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 DAC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-99314571.06098104</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-99314571.06098104</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-99364751.81368104</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-99415055.08378103</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-99415055.08378103</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-99297832.27268103</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-100186607.292781</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-100238982.442281</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-102761798.443781</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-103466721.265781</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-103466721.265781</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-103446721.265781</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-103447721.265781</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-103349354.919481</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-103349354.919481</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-103349354.919481</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-103221284.955981</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-103414418.189181</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-103365858.189181</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-103345070.550681</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-103256109.985881</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-103256109.985881</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-103213773.576381</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-103202749.990881</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-103202749.990881</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-103202599.990881</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-103202599.990881</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-104018000.149481</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-104029497.4651811</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-104148181.8377811</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-104209066.2103811</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-104200533.5637811</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-104200533.5637811</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-104065406.7427811</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-104660012.9756811</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-104637204.0172811</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-104628926.5102811</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-104628776.5102811</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-104628776.5102811</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-104632900.5639811</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-104624100.5639811</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-104624100.5639811</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-104109271.5746811</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-13 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 DAC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-99314571.06098104</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-99398130.08378103</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-99415055.08378103</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-99415055.08378103</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-99415055.08378103</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-99297451.92008103</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-99297832.27268103</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-99263963.40918103</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-99263963.40918103</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-99097387.47638103</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-99704814.83328104</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-99691414.83328104</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-99691414.83328104</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-99701910.02468105</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-99835806.05988105</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-99905224.70858105</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-99949947.26648104</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-100302937.808681</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-100186607.292781</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-100186610.292781</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-100238982.442281</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-100238982.442281</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-100793602.666581</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-100899000.530781</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-100967629.977481</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-100967629.977481</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-100995085.328581</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-100995085.328581</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-100995085.328581</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-102775085.328581</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-102761798.443781</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-103466721.265781</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-103466721.265781</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-103446721.265781</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-103447721.265781</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-103349354.919481</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-103349354.919481</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-103349354.919481</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-103221284.955981</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-103414418.189181</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-103365858.189181</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-103345070.550681</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-103256109.985881</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-103256109.985881</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-103213773.576381</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-103202749.990881</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-103202749.990881</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-103202599.990881</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-103202599.990881</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-104018000.149481</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-104029497.4651811</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-104148181.8377811</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-104660012.9756811</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-104637204.0172811</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-104628926.5102811</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-104628776.5102811</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-104628776.5102811</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-104632900.5639811</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-104624100.5639811</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-104624100.5639811</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-104619838.6236811</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-104619838.6236811</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
